--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2832.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2832.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.172945716836995</v>
+        <v>1.138377666473389</v>
       </c>
       <c r="B1">
-        <v>2.44042050844536</v>
+        <v>2.415556192398071</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>5.19922924041748</v>
       </c>
       <c r="D1">
-        <v>2.361093389332569</v>
+        <v>2.223955154418945</v>
       </c>
       <c r="E1">
-        <v>1.237193756118647</v>
+        <v>1.2546706199646</v>
       </c>
     </row>
   </sheetData>
